--- a/templates/Roadshow_template.xlsx
+++ b/templates/Roadshow_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayman\Desktop\Quick Wins\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayman\Desktop\Quick Wins\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC3C5EC-DD88-4DD8-862C-9C52EFA1869B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517054D6-6041-4DA4-9AE0-255B1229AA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{84B484C7-D0CA-449F-8C1A-A42C755D89C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{84B484C7-D0CA-449F-8C1A-A42C755D89C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Suivi du Roadshow" sheetId="1" r:id="rId1"/>
@@ -1415,7 +1415,7 @@
   <dimension ref="A1:AF188"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T22" sqref="A22:T162"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.9" customHeight="1" outlineLevelCol="4" x14ac:dyDescent="0.3"/>
@@ -1453,7 +1453,7 @@
     <row r="2" spans="1:21" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21">
         <f ca="1">TODAY()</f>
-        <v>45462</v>
+        <v>45475</v>
       </c>
       <c r="U2" s="1"/>
     </row>
@@ -5509,7 +5509,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="21">
         <f ca="1">TODAY()</f>
-        <v>45462</v>
+        <v>45475</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
